--- a/Auswertung/Report/DeskriptiveStatistik.xlsx
+++ b/Auswertung/Report/DeskriptiveStatistik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Auswertung\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Auswertung\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3B9520-CB8C-46E5-B69A-9B57CC483E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659D66D1-94DE-4C4A-A66A-B815DA0FF233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6890834C-6E2A-4007-8ED8-148B4F58F4EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6890834C-6E2A-4007-8ED8-148B4F58F4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="DeskriptiveStatistikCSV" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="127">
   <si>
     <t>Column1</t>
   </si>
@@ -424,13 +424,16 @@
   </si>
   <si>
     <t>Insgesamt</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +441,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +463,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -472,15 +489,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -849,20 +1072,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C38321-A5ED-426D-B5C3-2E5D9F72281D}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" customWidth="1"/>
+    <col min="13" max="14" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,7 +1150,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -978,7 +1202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1030,7 +1254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1082,7 +1306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1111,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1185,8 +1409,17 @@
       <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1208,8 +1441,19 @@
       <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1231,8 +1475,31 @@
       <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="6"/>
+      <c r="J14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1254,8 +1521,31 @@
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="6"/>
+      <c r="J15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="20">
+        <v>6</v>
+      </c>
+      <c r="L15" s="17">
+        <v>126.21</v>
+      </c>
+      <c r="M15" s="17">
+        <v>31.52</v>
+      </c>
+      <c r="N15" s="23">
+        <v>993.63</v>
+      </c>
+      <c r="O15" s="23">
+        <v>86.4</v>
+      </c>
+      <c r="P15" s="11">
+        <v>171.1</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1277,8 +1567,31 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="6"/>
+      <c r="J16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="20">
+        <v>6</v>
+      </c>
+      <c r="L16" s="17">
+        <v>73.5</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14.89</v>
+      </c>
+      <c r="N16" s="23">
+        <v>221.76</v>
+      </c>
+      <c r="O16" s="23">
+        <v>50.6</v>
+      </c>
+      <c r="P16" s="11">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,8 +1613,31 @@
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="6"/>
+      <c r="J17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="20">
+        <v>6</v>
+      </c>
+      <c r="L17" s="17">
+        <v>71.69</v>
+      </c>
+      <c r="M17" s="17">
+        <v>14.26</v>
+      </c>
+      <c r="N17" s="23">
+        <v>203.35</v>
+      </c>
+      <c r="O17" s="23">
+        <v>52.5</v>
+      </c>
+      <c r="P17" s="11">
+        <v>93.1</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,8 +1659,31 @@
       <c r="G18" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="6"/>
+      <c r="J18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="20">
+        <v>6</v>
+      </c>
+      <c r="L18" s="17">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="M18" s="17">
+        <v>10.35</v>
+      </c>
+      <c r="N18" s="23">
+        <v>107.18</v>
+      </c>
+      <c r="O18" s="23">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="P18" s="11">
+        <v>93.9</v>
+      </c>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1346,8 +1705,31 @@
       <c r="G19" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="6"/>
+      <c r="J19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="21">
+        <v>6</v>
+      </c>
+      <c r="L19" s="18">
+        <v>87.14</v>
+      </c>
+      <c r="M19" s="18">
+        <v>20.37</v>
+      </c>
+      <c r="N19" s="24">
+        <v>414.84</v>
+      </c>
+      <c r="O19" s="24">
+        <v>59.5</v>
+      </c>
+      <c r="P19" s="13">
+        <v>109.4</v>
+      </c>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1369,8 +1751,17 @@
       <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1392,8 +1783,17 @@
       <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21" s="6"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1415,8 +1815,19 @@
       <c r="G22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22" s="6"/>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1438,8 +1849,31 @@
       <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
+      <c r="J23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1461,8 +1895,31 @@
       <c r="G24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24" s="6"/>
+      <c r="J24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="20">
+        <v>6</v>
+      </c>
+      <c r="L24" s="23">
+        <v>18.25</v>
+      </c>
+      <c r="M24" s="23">
+        <v>12.96</v>
+      </c>
+      <c r="N24" s="23">
+        <v>167.87</v>
+      </c>
+      <c r="O24" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P24" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1484,8 +1941,31 @@
       <c r="G25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25" s="6"/>
+      <c r="J25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="20">
+        <v>6</v>
+      </c>
+      <c r="L25" s="23">
+        <v>16.22</v>
+      </c>
+      <c r="M25" s="23">
+        <v>15.37</v>
+      </c>
+      <c r="N25" s="23">
+        <v>236.35</v>
+      </c>
+      <c r="O25" s="23">
+        <v>2.6</v>
+      </c>
+      <c r="P25" s="11">
+        <v>45.7</v>
+      </c>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1507,8 +1987,31 @@
       <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26" s="6"/>
+      <c r="J26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="20">
+        <v>6</v>
+      </c>
+      <c r="L26" s="23">
+        <v>12.92</v>
+      </c>
+      <c r="M26" s="23">
+        <v>12.08</v>
+      </c>
+      <c r="N26" s="23">
+        <v>145.86000000000001</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="P26" s="11">
+        <v>35.9</v>
+      </c>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1530,8 +2033,31 @@
       <c r="G27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27" s="6"/>
+      <c r="J27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="20">
+        <v>6</v>
+      </c>
+      <c r="L27" s="23">
+        <v>18.04</v>
+      </c>
+      <c r="M27" s="23">
+        <v>17.18</v>
+      </c>
+      <c r="N27" s="23">
+        <v>295.12</v>
+      </c>
+      <c r="O27" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P27" s="11">
+        <v>50.3</v>
+      </c>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1553,8 +2079,31 @@
       <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28" s="6"/>
+      <c r="J28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="21">
+        <v>6</v>
+      </c>
+      <c r="L28" s="24">
+        <v>20.82</v>
+      </c>
+      <c r="M28" s="24">
+        <v>16.61</v>
+      </c>
+      <c r="N28" s="24">
+        <v>275.79000000000002</v>
+      </c>
+      <c r="O28" s="24">
+        <v>7.1</v>
+      </c>
+      <c r="P28" s="13">
+        <v>53.4</v>
+      </c>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1576,8 +2125,17 @@
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29" s="6"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1599,8 +2157,17 @@
       <c r="G30" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30" s="6"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1622,8 +2189,19 @@
       <c r="G31" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31" s="6"/>
+      <c r="J31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1645,8 +2223,31 @@
       <c r="G32" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32" s="6"/>
+      <c r="J32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1668,8 +2269,31 @@
       <c r="G33" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33" s="6"/>
+      <c r="J33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="20">
+        <v>6</v>
+      </c>
+      <c r="L33" s="17">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="M33" s="23">
+        <v>14.69</v>
+      </c>
+      <c r="N33" s="23">
+        <v>215.87</v>
+      </c>
+      <c r="O33" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1691,8 +2315,31 @@
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34" s="6"/>
+      <c r="J34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="20">
+        <v>6</v>
+      </c>
+      <c r="L34" s="17">
+        <v>21</v>
+      </c>
+      <c r="M34" s="23">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="N34" s="23">
+        <v>262</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="P34" s="14">
+        <v>0.51</v>
+      </c>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1714,8 +2361,31 @@
       <c r="G35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35" s="6"/>
+      <c r="J35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="20">
+        <v>6</v>
+      </c>
+      <c r="L35" s="17">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="M35" s="23">
+        <v>15.13</v>
+      </c>
+      <c r="N35" s="23">
+        <v>229.07</v>
+      </c>
+      <c r="O35" s="25">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1737,8 +2407,31 @@
       <c r="G36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36" s="6"/>
+      <c r="J36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="20">
+        <v>6</v>
+      </c>
+      <c r="L36" s="17">
+        <v>21.67</v>
+      </c>
+      <c r="M36" s="23">
+        <v>18.07</v>
+      </c>
+      <c r="N36" s="23">
+        <v>326.67</v>
+      </c>
+      <c r="O36" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="P36" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1760,8 +2453,31 @@
       <c r="G37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37" s="6"/>
+      <c r="J37" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="21">
+        <v>6</v>
+      </c>
+      <c r="L37" s="18">
+        <v>22.67</v>
+      </c>
+      <c r="M37" s="24">
+        <v>14.07</v>
+      </c>
+      <c r="N37" s="24">
+        <v>197.87</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1783,8 +2499,17 @@
       <c r="G38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38" s="6"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1806,8 +2531,17 @@
       <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39" s="6"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1829,8 +2563,16 @@
       <c r="G40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +2618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +2641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1922,7 +2664,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,7 +2687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +2710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1991,7 +2733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2037,7 +2779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2060,7 +2802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2083,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2106,7 +2848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -2129,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -2175,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2198,7 +2940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -2244,7 +2986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -2267,7 +3009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -2290,7 +3032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,7 +3101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -2382,7 +3124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
@@ -2405,7 +3147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2428,7 +3170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +3193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +3216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +3239,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
@@ -2520,7 +3262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -2543,7 +3285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>34</v>
       </c>
@@ -2566,7 +3308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
@@ -2627,7 +3369,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
